--- a/Alg_and_DS/Lesson_8/sort.xlsx
+++ b/Alg_and_DS/Lesson_8/sort.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>ФИО</t>
   </si>
@@ -67,13 +67,148 @@
   </si>
   <si>
     <t>Сортировка 1000000 элементов, количество сравнений</t>
+  </si>
+  <si>
+    <t>00:00.000793</t>
+  </si>
+  <si>
+    <t>00:00.000623</t>
+  </si>
+  <si>
+    <t>00:00.000724</t>
+  </si>
+  <si>
+    <t>00:00.030908</t>
+  </si>
+  <si>
+    <t>00:00.000415</t>
+  </si>
+  <si>
+    <t>00:00.000830</t>
+  </si>
+  <si>
+    <t>00:01.398834</t>
+  </si>
+  <si>
+    <t>00:00.710678</t>
+  </si>
+  <si>
+    <t>00:00.002796</t>
+  </si>
+  <si>
+    <t>00:00.023273</t>
+  </si>
+  <si>
+    <t>00:00.003428</t>
+  </si>
+  <si>
+    <t>00:00.207262</t>
+  </si>
+  <si>
+    <t>Томашевич Даниил Андреевич</t>
+  </si>
+  <si>
+    <t>Windows 7 Ultimate</t>
+  </si>
+  <si>
+    <t>Visual Studio Community 2017</t>
+  </si>
+  <si>
+    <t>Intel Core i5-3210M</t>
+  </si>
+  <si>
+    <t>00:00.217277</t>
+  </si>
+  <si>
+    <t>00:00.266670</t>
+  </si>
+  <si>
+    <t>00:01.160842</t>
+  </si>
+  <si>
+    <t>10:21.637777</t>
+  </si>
+  <si>
+    <t>58:57.734084</t>
+  </si>
+  <si>
+    <t>38:04.066041</t>
+  </si>
+  <si>
+    <t>* Подробное сравнение для 10 и 10000 входных не имеет смысла ввиду недостаточно</t>
+  </si>
+  <si>
+    <t>большого различия в значениях времени и количеств сравнений</t>
+  </si>
+  <si>
+    <t>(Исключение составляют Шейкерная и Пузырьковая сортировки, т.к.</t>
+  </si>
+  <si>
+    <t>их показатели уже превышают показатели других видов сортировок</t>
+  </si>
+  <si>
+    <t>на один-два разряда)</t>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+  </si>
+  <si>
+    <t>O(n*log(n)*log(n))</t>
+  </si>
+  <si>
+    <t>O(n*log(n))</t>
+  </si>
+  <si>
+    <t>: Merge, Quick, Heap</t>
+  </si>
+  <si>
+    <t>: Shell</t>
+  </si>
+  <si>
+    <t>: Bubble и Shake</t>
+  </si>
+  <si>
+    <t>В работе рассматривались сортировки со следующими ассимп. оценками сверху:</t>
+  </si>
+  <si>
+    <t>Несмотря на одинаковую сложность некоторых алгоритмов, их результаты</t>
+  </si>
+  <si>
+    <t>оказываются несколько различными из-за пренебрежения постоянными в</t>
+  </si>
+  <si>
+    <t>big-O нотации. При высокой сокрости работы это не имеет значения (Quick, Merge),</t>
+  </si>
+  <si>
+    <t>но разность между O(n^2) сортировками может оказаться ощутимой ( около 20 минут</t>
+  </si>
+  <si>
+    <t>в данном случак)</t>
+  </si>
+  <si>
+    <t>Самым быстрым алгоритмом является Quick. Меньше всего операций при существенно</t>
+  </si>
+  <si>
+    <t>большем времени (чем у Quick) у Heap.</t>
+  </si>
+  <si>
+    <t>Сортировки Bubble и Shake потребовали чуть меньше 1 часа времени, что примерно</t>
+  </si>
+  <si>
+    <t>в 16000 раз больше, чем у Quick. Данные сортировки практически не пригодны.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0000000\ _₽_-;\-* #,##0.0000000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.00000000\ _₽_-;\-* #,##0.00000000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,11 +217,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF2C2D30"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2C2D30"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,77 +404,114 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -615,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:I38"/>
+  <dimension ref="C6:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,166 +821,299 @@
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="3:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="3:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="L10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="L11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="3:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="C13" s="15" t="s">
+      <c r="D12" s="24">
+        <v>100</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="26">
+        <v>1000000</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="3:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="F13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="23"/>
+      <c r="G14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="5">
+        <v>835</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="4">
+        <v>154148</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="4">
+        <v>67582406</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="3:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="5">
+        <v>381</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="4">
+        <v>143490</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="4">
+        <v>42462877</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="5">
+        <v>672</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="4">
+        <v>133616</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="4">
+        <v>19951424</v>
+      </c>
+      <c r="K17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="3:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="5">
+        <v>430</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="4">
+        <v>108226</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="4">
+        <v>17455611</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="3:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="5">
+        <v>9901</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="4">
+        <v>99990001</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="9">
+        <v>999999000001</v>
+      </c>
+      <c r="L19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4950</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="4">
+        <v>49995000</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="9">
+        <v>499999500000</v>
+      </c>
+      <c r="L20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -793,19 +1121,25 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="3:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="19" t="s">
+      <c r="L21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-    </row>
-    <row r="23" spans="3:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
         <v>9</v>
@@ -825,86 +1159,165 @@
       <c r="I23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="5">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.187</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H24" s="5">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="I24" s="5">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5">
+        <v>1.23</v>
+      </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="G25" s="5">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H25" s="5">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="5">
+        <v>5.35</v>
+      </c>
+      <c r="E26" s="5">
+        <v>4.3499999999999996</v>
+      </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I26" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="D27" s="5">
+        <v>3333.33</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F27" s="5">
+        <v>500</v>
+      </c>
       <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="5">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="D28" s="5">
+        <v>16666.66</v>
+      </c>
+      <c r="E28" s="5">
+        <v>12500</v>
+      </c>
+      <c r="F28" s="5">
+        <v>3333.33</v>
+      </c>
+      <c r="G28" s="5">
+        <v>5.68</v>
+      </c>
       <c r="H28" s="1">
         <v>1</v>
       </c>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="5">
+        <v>1.55</v>
+      </c>
+      <c r="K28" s="33"/>
+    </row>
+    <row r="29" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="D29" s="5">
+        <v>11111.11</v>
+      </c>
+      <c r="E29" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F29" s="5">
+        <v>200</v>
+      </c>
+      <c r="G29" s="5">
+        <v>3.68</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.64600000000000002</v>
+      </c>
       <c r="I29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -912,19 +1325,25 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="3:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="19" t="s">
+      <c r="K30" s="33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
-    </row>
-    <row r="32" spans="3:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="12"/>
+      <c r="K31" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="5"/>
       <c r="D32" s="1" t="s">
         <v>9</v>
@@ -944,6 +1363,9 @@
       <c r="I32" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="K32" s="34" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="33" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
@@ -952,79 +1374,169 @@
       <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="E33" s="5">
+        <f>I15/I16</f>
+        <v>1.5915644622949123</v>
+      </c>
+      <c r="F33" s="5">
+        <f>I15/I17</f>
+        <v>3.3873474895826985</v>
+      </c>
+      <c r="G33" s="5">
+        <f>I15/I18</f>
+        <v>3.8716723235869543</v>
+      </c>
+      <c r="H33" s="29">
+        <f>I15/I19</f>
+        <v>6.7582473582406002E-5</v>
+      </c>
+      <c r="I33" s="28">
+        <f>I15/I20</f>
+        <v>1.3516494716494718E-4</v>
+      </c>
     </row>
     <row r="34" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="5">
+        <f>1/E33</f>
+        <v>0.62831259662463035</v>
+      </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="F34" s="5">
+        <f>I16/I17</f>
+        <v>2.1283130968496282</v>
+      </c>
+      <c r="G34" s="5">
+        <f>I16/I18</f>
+        <v>2.4326204909126354</v>
+      </c>
+      <c r="H34" s="32">
+        <f>I16/I19</f>
+        <v>4.2462919462876999E-5</v>
+      </c>
+      <c r="I34" s="31">
+        <f>I16/I20</f>
+        <v>8.4925838925838931E-5</v>
+      </c>
     </row>
     <row r="35" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="D35" s="5">
+        <f>1/F33</f>
+        <v>0.29521624311510897</v>
+      </c>
+      <c r="E35" s="5">
+        <f>1/F34</f>
+        <v>0.46985568123422256</v>
+      </c>
       <c r="F35" s="1">
         <v>1</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="G35" s="5">
+        <f>I17/I18</f>
+        <v>1.1429805579420853</v>
+      </c>
+      <c r="H35" s="32">
+        <f>I17/I19</f>
+        <v>1.9951443951423999E-5</v>
+      </c>
+      <c r="I35" s="31">
+        <f>I17/I20</f>
+        <v>3.9902887902887904E-5</v>
+      </c>
     </row>
     <row r="36" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="D36" s="5">
+        <f>1/G33</f>
+        <v>0.25828632085102149</v>
+      </c>
+      <c r="E36" s="5">
+        <f>1/G34</f>
+        <v>0.41107932936338726</v>
+      </c>
+      <c r="F36" s="5">
+        <f>1/G35</f>
+        <v>0.87490552052825898</v>
+      </c>
       <c r="G36" s="1">
         <v>1</v>
       </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="H36" s="32">
+        <f>I18/I19</f>
+        <v>1.7455628455610999E-5</v>
+      </c>
+      <c r="I36" s="31">
+        <f>I18/I20</f>
+        <v>3.4911256911256908E-5</v>
+      </c>
     </row>
     <row r="37" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="D37" s="5">
+        <f>1/H33</f>
+        <v>14796.735706642346</v>
+      </c>
+      <c r="E37" s="30">
+        <f>1/H34</f>
+        <v>23549.958708662158</v>
+      </c>
+      <c r="F37" s="30">
+        <f>1/H35</f>
+        <v>50121.685549913629</v>
+      </c>
+      <c r="G37" s="30">
+        <f>1/H36</f>
+        <v>57288.112114838033</v>
+      </c>
       <c r="H37" s="1">
         <v>1</v>
       </c>
-      <c r="I37" s="5"/>
+      <c r="I37" s="5">
+        <f>I19/I20</f>
+        <v>2.0000000000020002</v>
+      </c>
     </row>
     <row r="38" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="D38" s="5">
+        <f>1/I33</f>
+        <v>7398.3678533137745</v>
+      </c>
+      <c r="E38" s="30">
+        <f>1/I34</f>
+        <v>11774.979354319303</v>
+      </c>
+      <c r="F38" s="30">
+        <f>1/I35</f>
+        <v>25060.842774931753</v>
+      </c>
+      <c r="G38" s="30">
+        <f>1/I36</f>
+        <v>28644.056057390375</v>
+      </c>
+      <c r="H38" s="5">
+        <f>1/I37</f>
+        <v>0.49999999999949996</v>
+      </c>
       <c r="I38" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="C31:I31"/>
     <mergeCell ref="D7:I7"/>
@@ -1034,9 +1546,10 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Alg_and_DS/Lesson_8/sort.xlsx
+++ b/Alg_and_DS/Lesson_8/sort.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>ФИО</t>
   </si>
@@ -186,16 +186,19 @@
     <t>в данном случак)</t>
   </si>
   <si>
-    <t>Самым быстрым алгоритмом является Quick. Меньше всего операций при существенно</t>
-  </si>
-  <si>
-    <t>большем времени (чем у Quick) у Heap.</t>
-  </si>
-  <si>
     <t>Сортировки Bubble и Shake потребовали чуть меньше 1 часа времени, что примерно</t>
   </si>
   <si>
     <t>в 16000 раз больше, чем у Quick. Данные сортировки практически не пригодны.</t>
+  </si>
+  <si>
+    <t>Меньше всего операций при существенно большем времени (чем у Quick) у Heap.</t>
+  </si>
+  <si>
+    <t>Самым быстрым алгоритмом является Quick. Затем с меньшим количеством сравнений,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> но чуть большим временем следуют Shell и Merge.</t>
   </si>
 </sst>
 </file>
@@ -205,15 +208,23 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0000000\ _₽_-;\-* #,##0.0000000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00000000\ _₽_-;\-* #,##0.00000000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000000\ _₽_-;\-* #,##0.0000000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00000000\ _₽_-;\-* #,##0.00000000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,83 +417,100 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -491,23 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -812,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,27 +845,27 @@
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
       <c r="K8" t="s">
         <v>39</v>
       </c>
@@ -862,14 +874,14 @@
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
       <c r="L9" t="s">
         <v>40</v>
       </c>
@@ -878,14 +890,14 @@
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
       <c r="L10" t="s">
         <v>41</v>
       </c>
@@ -894,51 +906,51 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
       <c r="L11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="5"/>
-      <c r="D12" s="24">
+      <c r="D12" s="31">
         <v>100</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26">
+      <c r="E12" s="32"/>
+      <c r="F12" s="33">
         <v>10000</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="26">
+      <c r="G12" s="34"/>
+      <c r="H12" s="33">
         <v>1000000</v>
       </c>
-      <c r="I12" s="27"/>
+      <c r="I12" s="34"/>
       <c r="L12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="29" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="29" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="6" t="s">
@@ -946,16 +958,16 @@
       </c>
     </row>
     <row r="14" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="23"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="7" t="s">
         <v>8</v>
       </c>
@@ -1129,15 +1141,15 @@
       </c>
     </row>
     <row r="22" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="5"/>
@@ -1159,7 +1171,7 @@
       <c r="I23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="34" t="s">
+      <c r="K23" s="16" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1185,7 +1197,7 @@
       <c r="I24" s="5">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="K24" s="33" t="s">
+      <c r="K24" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1211,7 +1223,7 @@
       <c r="I25" s="5">
         <v>1E-4</v>
       </c>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="15" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1237,7 +1249,7 @@
       <c r="I26" s="5">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K26" s="33" t="s">
+      <c r="K26" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1263,7 +1275,7 @@
       <c r="I27" s="5">
         <v>0.27200000000000002</v>
       </c>
-      <c r="K27" s="33" t="s">
+      <c r="K27" s="15" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1289,7 +1301,7 @@
       <c r="I28" s="5">
         <v>1.55</v>
       </c>
-      <c r="K28" s="33"/>
+      <c r="K28" s="15"/>
     </row>
     <row r="29" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
@@ -1313,8 +1325,8 @@
       <c r="I29" s="1">
         <v>1</v>
       </c>
-      <c r="K29" s="33" t="s">
-        <v>56</v>
+      <c r="K29" s="35" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1325,21 +1337,21 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="K30" s="33" t="s">
-        <v>57</v>
+      <c r="K30" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="12"/>
-      <c r="K31" s="33" t="s">
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
+      <c r="K31" s="35" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1363,11 +1375,11 @@
       <c r="I32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K32" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>9</v>
       </c>
@@ -1386,16 +1398,19 @@
         <f>I15/I18</f>
         <v>3.8716723235869543</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="11">
         <f>I15/I19</f>
         <v>6.7582473582406002E-5</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="10">
         <f>I15/I20</f>
         <v>1.3516494716494718E-4</v>
       </c>
-    </row>
-    <row r="34" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -1414,16 +1429,16 @@
         <f>I16/I18</f>
         <v>2.4326204909126354</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="14">
         <f>I16/I19</f>
         <v>4.2462919462876999E-5</v>
       </c>
-      <c r="I34" s="31">
+      <c r="I34" s="13">
         <f>I16/I20</f>
         <v>8.4925838925838931E-5</v>
       </c>
     </row>
-    <row r="35" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -1442,16 +1457,16 @@
         <f>I17/I18</f>
         <v>1.1429805579420853</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="14">
         <f>I17/I19</f>
         <v>1.9951443951423999E-5</v>
       </c>
-      <c r="I35" s="31">
+      <c r="I35" s="13">
         <f>I17/I20</f>
         <v>3.9902887902887904E-5</v>
       </c>
     </row>
-    <row r="36" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -1470,16 +1485,16 @@
       <c r="G36" s="1">
         <v>1</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="14">
         <f>I18/I19</f>
         <v>1.7455628455610999E-5</v>
       </c>
-      <c r="I36" s="31">
+      <c r="I36" s="13">
         <f>I18/I20</f>
         <v>3.4911256911256908E-5</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
         <v>13</v>
       </c>
@@ -1487,15 +1502,15 @@
         <f>1/H33</f>
         <v>14796.735706642346</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="12">
         <f>1/H34</f>
         <v>23549.958708662158</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="12">
         <f>1/H35</f>
         <v>50121.685549913629</v>
       </c>
-      <c r="G37" s="30">
+      <c r="G37" s="12">
         <f>1/H36</f>
         <v>57288.112114838033</v>
       </c>
@@ -1507,7 +1522,7 @@
         <v>2.0000000000020002</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,15 +1530,15 @@
         <f>1/I33</f>
         <v>7398.3678533137745</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="12">
         <f>1/I34</f>
         <v>11774.979354319303</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="12">
         <f>1/I35</f>
         <v>25060.842774931753</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="12">
         <f>1/I36</f>
         <v>28644.056057390375</v>
       </c>
